--- a/rules/CORE-000929/negative/01/data/unit-test-coreid-CG0001-negative.xlsx
+++ b/rules/CORE-000929/negative/01/data/unit-test-coreid-CG0001-negative.xlsx
@@ -728,7 +728,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Sheet/Domain</t>
+          <t>Sheet</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
